--- a/myswcautosar.xlsx
+++ b/myswcautosar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11_web\z_canmatrix\autosarbuild\autosar\z_swc_gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11_web\SWC_Maker\autosar\z_swc_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2DA584-E0E3-4C83-AFE2-63D4DA94EC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD1550-207B-4DB6-AEE8-6CD7A66A12E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Direction</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>VehSpdVld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetDoorCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dooroperater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855DDDED-1E82-44DA-B35F-698B1AA9F0FA}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -679,8 +691,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myswcautosar.xlsx
+++ b/myswcautosar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11_web\SWC_Maker\autosar\z_swc_gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11_web\SWC_Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD1550-207B-4DB6-AEE8-6CD7A66A12E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD1E0E-21CB-4848-A727-E69D55F70253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,22 +30,10 @@
     <t>Direction</t>
   </si>
   <si>
-    <t>FrLeDoorState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReLeDoorState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>require</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>      Item
-Number</t>
-  </si>
-  <si>
     <t>PSDContrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,11 +98,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dooroperater</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClientServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrLeDoorSts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReLeDoorSts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>     ItemNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +138,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -152,12 +146,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -183,28 +176,97 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF2B2B2B"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF2B2B2B"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF2B2B2B"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF2B2B2B"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -212,19 +274,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,11 +591,12 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.4140625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
@@ -523,195 +606,198 @@
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
